--- a/work_now/nimeidejiqi.xlsx
+++ b/work_now/nimeidejiqi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
   <si>
     <t>IP：</t>
   </si>
@@ -120,9 +120,6 @@
     <t>39.107.243.104/172.16.39.164</t>
   </si>
   <si>
-    <t>longja</t>
-  </si>
-  <si>
     <t>proxysql</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
     <t>redis</t>
   </si>
   <si>
+    <t>redis-cli -h 172.16.39.169 -p 18000 -a xcTeRed#@0526</t>
+  </si>
+  <si>
     <t>内侧2</t>
   </si>
   <si>
@@ -168,7 +168,7 @@
     <t>60.205.208.4/172.16.39.172</t>
   </si>
   <si>
-    <t>pro_cpp/Vnc2018_Cpp</t>
+    <t>dev/dEv2oI80fVnc_xc</t>
   </si>
   <si>
     <t>172.16.39.171</t>
@@ -330,6 +330,9 @@
     <t>proxysql/test123</t>
   </si>
   <si>
+    <t>redis-cli -h 172.16.39.199 -p 18001 -a xcRed.,0505</t>
+  </si>
+  <si>
     <t>172.16.39.174</t>
   </si>
   <si>
@@ -339,7 +342,13 @@
     <t>redis-cli -h 172.16.39.199 -p 18000 -a xcRed.,0505</t>
   </si>
   <si>
+    <t>redis-cli -h 172.16.39.197 -p 12193 -a request MONITOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">新埋点服务器数据库IP  59.110.223.93 </t>
+  </si>
+  <si>
+    <t>redis-cli -h 172.16.39.198 -p 11193 -a request MONITOR</t>
   </si>
   <si>
     <t>10.172.186.58</t>
@@ -724,10 +733,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -740,7 +749,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,7 +757,45 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,30 +808,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,6 +824,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -807,30 +863,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,32 +884,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,13 +900,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,19 +930,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,49 +1002,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,85 +1050,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1159,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,17 +1209,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,7 +1228,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,36 +1252,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1251,10 +1260,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1263,133 +1272,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1397,7 +1406,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1428,9 +1440,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1786,8 +1795,8 @@
   <sheetPr/>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1795,9 +1804,9 @@
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="36.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="55" customWidth="1"/>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="36.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="57.875" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1811,7 +1820,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1828,7 +1837,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -1845,7 +1854,7 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -1901,7 +1910,7 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
@@ -1918,7 +1927,7 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
@@ -1935,7 +1944,7 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
@@ -1952,7 +1961,7 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
@@ -1966,7 +1975,7 @@
       <c r="B14">
         <v>2201</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
@@ -1987,7 +1996,7 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1995,35 +2004,35 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
       </c>
       <c r="C20">
         <v>6033</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
       </c>
       <c r="C21">
         <v>18000</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -2032,15 +2041,20 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="D23"/>
     </row>
-    <row r="24" spans="4:4">
-      <c r="D24"/>
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25"/>
@@ -2062,7 +2076,7 @@
       <c r="F27" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2077,7 +2091,7 @@
       <c r="F28" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2097,7 +2111,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
@@ -2106,7 +2120,7 @@
         <v>6379</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
         <v>50</v>
@@ -2114,7 +2128,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
@@ -2123,7 +2137,7 @@
         <v>6379</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
         <v>52</v>
@@ -2131,7 +2145,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -2212,7 +2226,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
         <v>64</v>
@@ -2224,7 +2238,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>66</v>
@@ -2233,7 +2247,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -2320,7 +2334,7 @@
         <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
         <v>86</v>
@@ -2377,7 +2391,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
         <v>97</v>
@@ -2393,7 +2407,7 @@
       </c>
       <c r="D59"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -2406,13 +2420,16 @@
       <c r="D60" t="s">
         <v>101</v>
       </c>
+      <c r="E60" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C61">
         <v>6379</v>
@@ -2421,24 +2438,30 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
       <c r="D63"/>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D64"/>
+      <c r="E64" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2460,7 +2483,7 @@
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="12" customWidth="1"/>
     <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="34.375" customWidth="1"/>
@@ -2477,7 +2500,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -2486,16 +2509,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>6379</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>107</v>
+      <c r="D2" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2505,17 +2528,17 @@
       <c r="B3">
         <v>18001</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>107</v>
+      <c r="D3" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2527,50 +2550,50 @@
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B5">
         <v>6379</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>38</v>
+      <c r="D5" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>18000</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>38</v>
+      <c r="D6" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2580,8 +2603,8 @@
       <c r="B11">
         <v>18000</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>122</v>
+      <c r="D11" s="12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="8:8">
@@ -2597,30 +2620,30 @@
         <v>15672</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B21">
         <v>15672</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2658,7 +2681,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -2666,31 +2689,31 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>129</v>
+      <c r="A2" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>133</v>
+      <c r="D3" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +2757,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -2749,64 +2772,64 @@
         <v>3306</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B3">
         <v>3306</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="11" t="s">
         <v>137</v>
       </c>
+      <c r="D3" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>3306</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2817,16 +2840,16 @@
         <v>8066</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2837,47 +2860,47 @@
         <v>8066</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B8">
         <v>3306</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B9">
         <v>3306</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>150</v>
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2902,7 +2925,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="4" max="4" width="9" style="11"/>
+    <col min="4" max="4" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2915,7 +2938,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -2923,19 +2946,19 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
-        <v>154</v>
+      <c r="A2" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>155</v>
+      <c r="D2" s="12" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>156</v>
+      <c r="A3" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2965,510 +2988,510 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
-      <c r="C2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="3:17">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="3:17">
-      <c r="C6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="D6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="3:17">
-      <c r="C7" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="D7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="3:17">
-      <c r="C8" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="5">
         <v>10001</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="3:17">
+      <c r="C9" s="7"/>
+      <c r="D9" s="5">
+        <v>10002</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="3:17">
+      <c r="C10" s="7"/>
+      <c r="D10" s="5">
+        <v>10002</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="3:17">
+      <c r="C11" s="7"/>
+      <c r="D11" s="5">
+        <v>10003</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="3:17">
+      <c r="C12" s="7"/>
+      <c r="D12" s="5">
+        <v>10004</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="3:17">
+      <c r="C13" s="7"/>
+      <c r="D13" s="5">
+        <v>10005</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="3:17">
+      <c r="C14" s="8"/>
+      <c r="D14" s="5">
+        <v>10006</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="3:17">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="3:17">
+      <c r="C16" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="C18" s="7"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="C19" s="7"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="C20" s="7"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21" s="7"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="3:17">
+      <c r="C23" s="7"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="C24" s="8"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="3:17">
-      <c r="C9" s="6"/>
-      <c r="D9" s="4">
-        <v>10002</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="3:17">
-      <c r="C10" s="6"/>
-      <c r="D10" s="4">
-        <v>10002</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="3:17">
-      <c r="C11" s="6"/>
-      <c r="D11" s="4">
-        <v>10003</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="3:17">
-      <c r="C12" s="6"/>
-      <c r="D12" s="4">
-        <v>10004</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="3:17">
-      <c r="C13" s="6"/>
-      <c r="D13" s="4">
-        <v>10005</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="3:17">
-      <c r="C14" s="7"/>
-      <c r="D14" s="4">
-        <v>10006</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="3:17">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="3:17">
-      <c r="C16" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="F27" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="10"/>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="10"/>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="10"/>
+      <c r="E30" s="5">
+        <v>2</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="10"/>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="D32" s="10"/>
+      <c r="E32" s="5">
+        <v>4</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="10"/>
+      <c r="E33" s="5">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="10"/>
+      <c r="E34" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="3:17">
-      <c r="C17" s="6"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="3:17">
-      <c r="C18" s="6"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="3:17">
-      <c r="C19" s="6"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="3:17">
-      <c r="C20" s="6"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="3:17">
-      <c r="C21" s="6"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="3:17">
-      <c r="C22" s="6"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="3:17">
-      <c r="C23" s="6"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="3:17">
-      <c r="C24" s="7"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="D27" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6">
-      <c r="D28" s="9"/>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="D29" s="9"/>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="D30" s="9"/>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31" s="9"/>
-      <c r="E31" s="4">
-        <v>3</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32" s="9"/>
-      <c r="E32" s="4">
-        <v>4</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="9"/>
-      <c r="E33" s="4">
-        <v>5</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="9"/>
-      <c r="E34" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>183</v>
+      <c r="F34" s="5" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="4:6">
-      <c r="D35" s="9"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="4:6">
-      <c r="D36" s="9"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3508,36 +3531,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
       <c r="E1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3565,44 +3588,44 @@
   <sheetData>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>127</v>
+        <v>212</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3634,68 +3657,68 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/work_now/nimeidejiqi.xlsx
+++ b/work_now/nimeidejiqi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12735"/>
+    <workbookView windowWidth="28080" windowHeight="12735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="linux" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="IP地址" sheetId="7" r:id="rId7"/>
     <sheet name="Jenkins" sheetId="8" r:id="rId8"/>
     <sheet name="compare" sheetId="9" r:id="rId9"/>
+    <sheet name="日志" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240">
   <si>
     <t>IP：</t>
   </si>
@@ -120,6 +121,12 @@
     <t>39.107.243.104/172.16.39.164</t>
   </si>
   <si>
+    <t>z$tV_9$_SQ44C#3YeY</t>
+  </si>
+  <si>
+    <t>sudo supervisorctl -c /data/vnc_release/config/supervisor/2/node_1/supervisord.conf</t>
+  </si>
+  <si>
     <t>proxysql</t>
   </si>
   <si>
@@ -129,10 +136,13 @@
     <t>proxysql/P2r0xlY8sQoL_v7Nc</t>
   </si>
   <si>
+    <t>备注，sql也在 59.110.223.93</t>
+  </si>
+  <si>
     <t>codis</t>
   </si>
   <si>
-    <t>172.16.39.169</t>
+    <t>59.110.223.93/172.16.39.169</t>
   </si>
   <si>
     <t>xcTeRed#@0526</t>
@@ -318,6 +328,12 @@
     <t>39.105.42.204/172.16.39.174</t>
   </si>
   <si>
+    <t>redis-cli -h 172.16.39.174 -p 6379 -a xcRed.,0505 MONITOR</t>
+  </si>
+  <si>
+    <t>任务消息打点</t>
+  </si>
+  <si>
     <t>59.110.124.136/172.16.39.200</t>
   </si>
   <si>
@@ -499,6 +515,9 @@
   </si>
   <si>
     <t>dk2012</t>
+  </si>
+  <si>
+    <t>abuabu2017</t>
   </si>
   <si>
     <t>http://www.sojson.com/</t>
@@ -727,16 +746,28 @@
   <si>
     <t>sftp://longjia@39.105.86.198//data/xcbb_projects/xcbb_project/server.kr.2/server/datacenter/dc_script</t>
   </si>
+  <si>
+    <t>dc 错误日志</t>
+  </si>
+  <si>
+    <t>tail -f /vnc/log/dc_phplog</t>
+  </si>
+  <si>
+    <t>fpm 错误日志</t>
+  </si>
+  <si>
+    <t>tail -f /data/vnc_log/nginx/php_error.log</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -763,19 +794,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -787,15 +816,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,7 +845,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -831,44 +898,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -884,8 +914,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,49 +931,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,31 +991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,73 +1009,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1045,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,15 +1186,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1175,6 +1197,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,6 +1240,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1223,35 +1283,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1260,145 +1291,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1795,17 +1826,17 @@
   <sheetPr/>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="36.25" style="12" customWidth="1"/>
-    <col min="5" max="5" width="57.875" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="65.875" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
@@ -1988,7 +2019,7 @@
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1999,40 +2030,46 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>6033</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>18000</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -2041,7 +2078,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -2050,10 +2087,10 @@
     </row>
     <row r="24" spans="4:5">
       <c r="D24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="4:4">
@@ -2061,16 +2098,16 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D26"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D27"/>
       <c r="F27" t="s">
@@ -2082,10 +2119,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D28"/>
       <c r="F28" t="s">
@@ -2097,67 +2134,67 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C29">
         <v>3306</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C30">
         <v>6379</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>6379</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D32"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D33"/>
     </row>
@@ -2169,7 +2206,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D36"/>
     </row>
@@ -2178,91 +2215,91 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D40"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D42"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D43"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D44"/>
     </row>
@@ -2277,42 +2314,42 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D48"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2320,41 +2357,41 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2362,13 +2399,13 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="4:4">
@@ -2376,7 +2413,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D56"/>
     </row>
@@ -2385,51 +2422,57 @@
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D57"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D58"/>
+      <c r="E58" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D59"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C60">
         <v>6033</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C61">
         <v>6379</v>
@@ -2438,34 +2481,71 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="4:5">
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="115.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2509,16 +2589,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>6379</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2529,16 +2609,16 @@
         <v>18001</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2550,100 +2630,100 @@
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>6379</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>18000</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B11">
         <v>18000</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="8:8">
       <c r="H12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>15672</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B21">
         <v>15672</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2690,30 +2770,30 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2766,141 +2846,141 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>3306</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>3306</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>3306</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>8066</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>8066</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B8">
         <v>3306</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B9">
         <v>3306</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2918,14 +2998,15 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="34.625" customWidth="1"/>
     <col min="4" max="4" width="9" style="12"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2945,20 +3026,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2989,10 +3073,10 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -3005,10 +3089,10 @@
     </row>
     <row r="4" spans="3:6">
       <c r="C4" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3019,7 +3103,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="H5" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -3033,16 +3117,16 @@
     </row>
     <row r="6" spans="3:17">
       <c r="C6" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="11"/>
@@ -3057,16 +3141,16 @@
     </row>
     <row r="7" spans="3:17">
       <c r="C7" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="11"/>
@@ -3081,16 +3165,16 @@
     </row>
     <row r="8" spans="3:17">
       <c r="C8" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D8" s="5">
         <v>10001</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="11"/>
@@ -3109,10 +3193,10 @@
         <v>10002</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="11"/>
@@ -3131,10 +3215,10 @@
         <v>10002</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="11"/>
@@ -3153,10 +3237,10 @@
         <v>10003</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="11"/>
@@ -3175,10 +3259,10 @@
         <v>10004</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="11"/>
@@ -3197,10 +3281,10 @@
         <v>10005</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="11"/>
@@ -3219,10 +3303,10 @@
         <v>10006</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="11"/>
@@ -3238,13 +3322,13 @@
     <row r="15" spans="3:17">
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="11"/>
@@ -3259,16 +3343,16 @@
     </row>
     <row r="16" spans="3:17">
       <c r="C16" s="6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="11"/>
@@ -3411,13 +3495,13 @@
     </row>
     <row r="27" spans="4:6">
       <c r="D27" s="10" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="4:6">
@@ -3426,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="4:6">
@@ -3435,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="4:6">
@@ -3444,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="4:6">
@@ -3453,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="4:6">
@@ -3462,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="4:6">
@@ -3471,16 +3555,16 @@
         <v>5</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="4:6">
       <c r="D34" s="10"/>
       <c r="E34" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="4:6">
@@ -3531,36 +3615,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3575,7 +3659,7 @@
   <dimension ref="A4:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3588,50 +3672,50 @@
   <sheetData>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="http://39.105.67.125:8080/" tooltip="http://39.105.67.125:8080/"/>
-    <hyperlink ref="B16" r:id="rId2" display="http://39.105.99.120:15672/#/queues"/>
+    <hyperlink ref="B16" r:id="rId2" display="http://39.105.99.120:15672/#/queues" tooltip="http://39.105.99.120:15672/#/queues"/>
     <hyperlink ref="C16" r:id="rId3" display="P@ssword" tooltip="mailto:P@ssword"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3657,68 +3741,68 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/work_now/nimeidejiqi.xlsx
+++ b/work_now/nimeidejiqi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12735" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="linux" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241">
   <si>
     <t>IP：</t>
   </si>
@@ -52,6 +52,9 @@
     <t>linux 服务器</t>
   </si>
   <si>
+    <t>172.17.8.107</t>
+  </si>
+  <si>
     <t>60.205.151.85</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
     <t>redis-cli -h 172.16.39.169 -p 18000 -a xcTeRed#@0526</t>
   </si>
   <si>
+    <t>redis-cli -h 101.200.169.28 -p 50500</t>
+  </si>
+  <si>
     <t>内侧2</t>
   </si>
   <si>
@@ -386,9 +392,6 @@
   </si>
   <si>
     <t>龙城 redis</t>
-  </si>
-  <si>
-    <t>redis-cli -h 101.200.169.28 -p 50500</t>
   </si>
   <si>
     <t>112.126.70.236</t>
@@ -764,10 +767,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -794,15 +797,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,7 +844,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -825,7 +852,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,29 +881,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -869,15 +896,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,25 +918,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,7 +934,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +1000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,133 +1018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,19 +1042,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,6 +1189,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1211,6 +1225,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1221,21 +1265,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,32 +1286,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1291,10 +1294,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1303,16 +1306,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1324,112 +1327,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1528,12 +1531,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1818,16 +1816,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1858,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1874,248 +1873,242 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="1" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>2201</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>6033</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>18000</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23"/>
     </row>
     <row r="24" spans="4:5">
       <c r="D24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
       <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
         <v>46</v>
       </c>
       <c r="D27"/>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
@@ -2126,46 +2119,44 @@
       </c>
       <c r="D28"/>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="C29">
-        <v>3306</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D29"/>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
       </c>
       <c r="C30">
-        <v>6379</v>
+        <v>3306</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
@@ -2174,68 +2165,71 @@
         <v>6379</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="D32"/>
+      <c r="C32">
+        <v>6379</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D33"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
       <c r="D34"/>
     </row>
     <row r="35" spans="4:4">
       <c r="D35"/>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
+    <row r="36" spans="4:4">
       <c r="D36"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
         <v>60</v>
       </c>
+      <c r="D37"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
         <v>61</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
         <v>62</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2246,64 +2240,75 @@
         <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>65</v>
       </c>
       <c r="B40" t="s">
         <v>66</v>
       </c>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D41"/>
-      <c r="E41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>69</v>
       </c>
       <c r="D42"/>
+      <c r="E42" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D43"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>72</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>73</v>
       </c>
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="4:4">
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
       <c r="D45"/>
     </row>
     <row r="46" spans="4:4">
@@ -2312,198 +2317,201 @@
     <row r="47" spans="4:4">
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" t="s">
-        <v>76</v>
-      </c>
+    <row r="48" spans="4:4">
       <c r="D48"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
         <v>77</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>78</v>
       </c>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" t="s">
-        <v>80</v>
-      </c>
+      <c r="D49"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
         <v>81</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>82</v>
-      </c>
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
         <v>85</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>86</v>
-      </c>
-      <c r="D51" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
         <v>88</v>
       </c>
-      <c r="B52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>89</v>
-      </c>
-      <c r="D52" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s">
         <v>91</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>92</v>
-      </c>
-      <c r="C53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
         <v>95</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>96</v>
       </c>
-      <c r="D54" t="s">
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="C55" t="s">
         <v>98</v>
       </c>
+      <c r="D55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
       <c r="D56"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D57"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D58"/>
-      <c r="E58" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" t="s">
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="D59"/>
+      <c r="E59" t="s">
         <v>103</v>
       </c>
-      <c r="D59"/>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>105</v>
       </c>
-      <c r="C60">
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61">
         <v>6033</v>
       </c>
-      <c r="D60" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="D61" t="s">
         <v>108</v>
       </c>
-      <c r="C61">
+      <c r="E61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62">
         <v>6379</v>
       </c>
-      <c r="D61"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" t="s">
-        <v>109</v>
-      </c>
       <c r="D62"/>
-      <c r="E62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="4:5">
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
         <v>112</v>
       </c>
+    </row>
+    <row r="64" spans="4:5">
       <c r="D64"/>
       <c r="E64" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2514,7 +2522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:B4"/>
   <sheetViews>
@@ -2530,18 +2538,18 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2551,7 +2559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -2589,36 +2597,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>6379</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>18001</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2630,100 +2638,100 @@
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>6379</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>18000</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <v>18000</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="8:8">
       <c r="H12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20">
         <v>15672</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21">
         <v>15672</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +2742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2770,30 +2778,30 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
         <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2809,7 +2817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -2846,141 +2854,141 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>3306</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3">
         <v>3306</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>3306</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>8066</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>8066</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8">
         <v>3306</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B9">
         <v>3306</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2994,11 +3002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3028,21 +3036,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3056,7 +3064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="C2:Q36"/>
   <sheetViews>
@@ -3073,10 +3081,10 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -3089,10 +3097,10 @@
     </row>
     <row r="4" spans="3:6">
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3103,7 +3111,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="H5" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -3117,16 +3125,16 @@
     </row>
     <row r="6" spans="3:17">
       <c r="C6" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="11"/>
@@ -3141,16 +3149,16 @@
     </row>
     <row r="7" spans="3:17">
       <c r="C7" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="11"/>
@@ -3165,16 +3173,16 @@
     </row>
     <row r="8" spans="3:17">
       <c r="C8" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D8" s="5">
         <v>10001</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="11"/>
@@ -3193,10 +3201,10 @@
         <v>10002</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="11"/>
@@ -3215,10 +3223,10 @@
         <v>10002</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="11"/>
@@ -3237,10 +3245,10 @@
         <v>10003</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="11"/>
@@ -3259,10 +3267,10 @@
         <v>10004</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="11"/>
@@ -3281,10 +3289,10 @@
         <v>10005</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="11"/>
@@ -3303,10 +3311,10 @@
         <v>10006</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="11"/>
@@ -3322,13 +3330,13 @@
     <row r="15" spans="3:17">
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="11"/>
@@ -3343,16 +3351,16 @@
     </row>
     <row r="16" spans="3:17">
       <c r="C16" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="11"/>
@@ -3495,13 +3503,13 @@
     </row>
     <row r="27" spans="4:6">
       <c r="D27" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="4:6">
@@ -3510,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="4:6">
@@ -3519,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="4:6">
@@ -3528,7 +3536,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="4:6">
@@ -3537,7 +3545,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="4:6">
@@ -3546,7 +3554,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="4:6">
@@ -3555,16 +3563,16 @@
         <v>5</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="4:6">
       <c r="D34" s="10"/>
       <c r="E34" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="4:6">
@@ -3597,7 +3605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3615,36 +3623,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3654,7 +3662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A4:D16"/>
   <sheetViews>
@@ -3672,44 +3680,44 @@
   <sheetData>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" t="s">
-        <v>215</v>
-      </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3724,7 +3732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:C9"/>
   <sheetViews>
@@ -3741,68 +3749,68 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
